--- a/templates/dataplant/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY03_MetabolomicsMassSpec.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28926BCC-5E4C-4583-8F33-B973E12EBB04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD251EF3-EBB4-4BC4-B344-19FD8B43447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="254">
   <si>
     <t>Source Name</t>
   </si>
@@ -139,111 +139,39 @@
     <t>Parameter [MS sample post-extraction]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000043)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000043)</t>
-  </si>
-  <si>
     <t>Parameter [MS sample resuspension]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000044)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000044)</t>
-  </si>
-  <si>
     <t>Parameter [MS sample type]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000045)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000045)</t>
-  </si>
-  <si>
     <t>Parameter [MS derivatization]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000052)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000052)</t>
-  </si>
-  <si>
     <t>Parameter [label]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000079)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000079)</t>
-  </si>
-  <si>
     <t>Parameter [Chromatography instrument model]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000046)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000046)</t>
-  </si>
-  <si>
     <t>Parameter [Chromatography autosampler model]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000047)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000047)</t>
-  </si>
-  <si>
     <t>Parameter [Chromatography column type]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000053)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000053)</t>
-  </si>
-  <si>
     <t>Parameter [Chromatography column model]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000048)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000048)</t>
-  </si>
-  <si>
     <t>Parameter [Chromatography guard column model]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000049)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000049)</t>
-  </si>
-  <si>
     <t>Parameter [mobile phase]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000080)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000080)</t>
-  </si>
-  <si>
     <t>Parameter [elution]</t>
   </si>
   <si>
-    <t>Term Source REF (NFDI4PSO:0000081)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (NFDI4PSO:0000081)</t>
-  </si>
-  <si>
     <t>Parameter [scan polarity]</t>
   </si>
   <si>
@@ -274,12 +202,6 @@
     <t>Parameter [instrument model]</t>
   </si>
   <si>
-    <t>Term Source REF (MS:1000031)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1000031)</t>
-  </si>
-  <si>
     <t>Parameter [ionization type]</t>
   </si>
   <si>
@@ -397,18 +319,9 @@
     <t>annotationTableSpottyDog46</t>
   </si>
   <si>
-    <t>METABOLIGHTS</t>
-  </si>
-  <si>
     <t>Metabolomics</t>
   </si>
   <si>
-    <t>metabolites</t>
-  </si>
-  <si>
-    <t>Assay</t>
-  </si>
-  <si>
     <t>Brilhaus</t>
   </si>
   <si>
@@ -760,42 +673,6 @@
     <t>Thermo Scientific Vanquish UHPLC System</t>
   </si>
   <si>
-    <t>GERSTEL MultiPurpose Sampler (MPS) Dual Head</t>
-  </si>
-  <si>
-    <t>reverse phase</t>
-  </si>
-  <si>
-    <t>low polarity</t>
-  </si>
-  <si>
-    <t>XSelect HSS T3 (2 5 ¬µm, 3 0 mm x 150 mm length; Waters)</t>
-  </si>
-  <si>
-    <t>HP-5ms GC (0 25 ¬µm, 0 25 mm x 30 m; Agilent Technologies)</t>
-  </si>
-  <si>
-    <t>Synergi Polar-RP (4 µm, 4 6 mm x 100 mm; Phenomenex)</t>
-  </si>
-  <si>
-    <t>ACQUITY UPLC HSS T3 (1 8 µm, 2 1 mm x 100 mm; Waters)</t>
-  </si>
-  <si>
-    <t>ACQUITY UPLC HSS T3 VanGuard Pre-column (1 8 µm, 2 1 mm x 5 mm; Waters)</t>
-  </si>
-  <si>
-    <t>A: H2O (0.1% formic acid), B: ACN (0.1% formic acid)</t>
-  </si>
-  <si>
-    <t>20% ACN</t>
-  </si>
-  <si>
-    <t>gradient elution</t>
-  </si>
-  <si>
-    <t>isocratic elution</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
@@ -863,13 +740,163 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
+  </si>
+  <si>
+    <t>MetaboLights</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000097</t>
+  </si>
+  <si>
+    <t>DPBO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C49019</t>
+  </si>
+  <si>
+    <t>NCIT</t>
+  </si>
+  <si>
+    <t>assay protocol</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DPBO_1000177</t>
+  </si>
+  <si>
+    <t>Mass Spectrometry</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/NCIT_C17156</t>
+  </si>
+  <si>
+    <t>Protocol Type</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:1000161)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter [MS sample post-extraction] </t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000043)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000043)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter [MS sample resuspension] </t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000044)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000044)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter [MS sample type] </t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000045)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000045)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter [MS derivatization] </t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000052)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000052)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter [label] </t>
+  </si>
+  <si>
+    <t>Term Source REF (CHEBI:35209)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (CHEBI:35209)</t>
+  </si>
+  <si>
+    <t>Component [chromatography instrument model]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000046)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000046)</t>
+  </si>
+  <si>
+    <t>Component [chromatography autosampler model]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000047)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000047)</t>
+  </si>
+  <si>
+    <t>Parameter [chromatography column type]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000053)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000053)</t>
+  </si>
+  <si>
+    <t>Parameter [chromatography column model]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000048)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000048)</t>
+  </si>
+  <si>
+    <t>Parameter [chromatography guard column model]</t>
+  </si>
+  <si>
+    <t>Term Source REF (DPBO:0000049)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (DPBO:0000049)</t>
+  </si>
+  <si>
+    <t>Term Source REF (CHMO:0000995)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (CHMO:0000995)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter [elution] </t>
+  </si>
+  <si>
+    <t>Term Source REF ()</t>
+  </si>
+  <si>
+    <t>Term Accession Number ()</t>
+  </si>
+  <si>
+    <t>Component [instrument model]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Source REF (MS:1000031) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Accession Number (MS:1000031) </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,12 +918,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1029,7 +1050,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1068,12 +1089,121 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{9AC74787-D67A-4B33-A1D2-9A84BA6D8808}"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="38">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
@@ -1101,58 +1231,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0C71FBE-3A28-4220-8B04-9034056FE267}" name="annotationTableSpottyDog46" displayName="annotationTableSpottyDog46" ref="A1:BJ6" totalsRowShown="0">
-  <autoFilter ref="A1:BJ6" xr:uid="{C0C71FBE-3A28-4220-8B04-9034056FE267}"/>
-  <tableColumns count="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C0C71FBE-3A28-4220-8B04-9034056FE267}" name="annotationTableSpottyDog46" displayName="annotationTableSpottyDog46" ref="A1:BM6" totalsRowShown="0">
+  <autoFilter ref="A1:BM6" xr:uid="{C0C71FBE-3A28-4220-8B04-9034056FE267}"/>
+  <tableColumns count="65">
     <tableColumn id="1" xr3:uid="{3EFB8194-FD75-4232-BFAD-99FDD6998F2F}" name="Source Name"/>
-    <tableColumn id="3" xr3:uid="{A4B8CC44-FA31-44E2-BB1C-4E07BEB56D91}" name="Parameter [MS sample post-extraction]"/>
-    <tableColumn id="4" xr3:uid="{C3D48018-5889-467A-B439-34836158C166}" name="Term Source REF (NFDI4PSO:0000043)"/>
-    <tableColumn id="5" xr3:uid="{BA848BAC-5564-4942-9FBA-4A660C91F255}" name="Term Accession Number (NFDI4PSO:0000043)"/>
-    <tableColumn id="6" xr3:uid="{2CC7BDFF-1220-48C2-A461-6F457C8B66A5}" name="Parameter [MS sample resuspension]"/>
-    <tableColumn id="7" xr3:uid="{46B35EA2-96A2-4C52-B35B-75AB8D0DECBB}" name="Term Source REF (NFDI4PSO:0000044)"/>
-    <tableColumn id="8" xr3:uid="{EC94AAD1-6BE0-4137-BFBA-7B1B4FFF8455}" name="Term Accession Number (NFDI4PSO:0000044)"/>
-    <tableColumn id="9" xr3:uid="{04E3464A-201E-44FE-AB2B-D8AF15E1AAA5}" name="Parameter [MS sample type]"/>
-    <tableColumn id="10" xr3:uid="{CFD2A2CD-3C3E-42FD-B2D1-221D08420836}" name="Term Source REF (NFDI4PSO:0000045)"/>
-    <tableColumn id="11" xr3:uid="{0EDACBF8-E8E5-44C6-9868-4E90184B243B}" name="Term Accession Number (NFDI4PSO:0000045)"/>
-    <tableColumn id="12" xr3:uid="{545F8B57-622E-493D-8C4E-B29116D9197A}" name="Parameter [MS derivatization]"/>
-    <tableColumn id="13" xr3:uid="{A2DA9FD1-94B8-49AB-B7F0-04A73919E1BA}" name="Term Source REF (NFDI4PSO:0000052)"/>
-    <tableColumn id="14" xr3:uid="{82FB5A11-A2CD-4A3B-A3AF-47566EB954F1}" name="Term Accession Number (NFDI4PSO:0000052)"/>
-    <tableColumn id="15" xr3:uid="{203EC0C9-6EA3-4530-9BD4-2AB854260402}" name="Parameter [label]"/>
-    <tableColumn id="16" xr3:uid="{783B91DC-0E34-4C62-81F2-46E58874694B}" name="Term Source REF (NFDI4PSO:0000079)"/>
-    <tableColumn id="17" xr3:uid="{15192DF3-D03F-4A7F-B7BB-51F190A78E2D}" name="Term Accession Number (NFDI4PSO:0000079)"/>
-    <tableColumn id="18" xr3:uid="{197C32E3-7CEC-4484-81EC-2E76FD6303DD}" name="Parameter [Chromatography instrument model]"/>
-    <tableColumn id="19" xr3:uid="{18B24BC8-16E5-4634-9139-C838E6E90279}" name="Term Source REF (NFDI4PSO:0000046)"/>
-    <tableColumn id="20" xr3:uid="{3EAE0A2D-9E12-4E7E-BA4D-2863C58BDD29}" name="Term Accession Number (NFDI4PSO:0000046)"/>
-    <tableColumn id="21" xr3:uid="{F77F48A2-CCD7-45AF-ADD0-99B636B21ACE}" name="Parameter [Chromatography autosampler model]"/>
-    <tableColumn id="22" xr3:uid="{2E61F145-6AF8-4A4D-A499-9322D418D1AD}" name="Term Source REF (NFDI4PSO:0000047)"/>
-    <tableColumn id="23" xr3:uid="{AA08B7A3-C365-4230-8F72-21ED735B3C70}" name="Term Accession Number (NFDI4PSO:0000047)"/>
-    <tableColumn id="24" xr3:uid="{1C4585BD-5916-40CF-BBCC-E847FFE30445}" name="Parameter [Chromatography column type]"/>
-    <tableColumn id="25" xr3:uid="{854C5402-9B5F-455A-8B77-D53187F0FE06}" name="Term Source REF (NFDI4PSO:0000053)"/>
-    <tableColumn id="26" xr3:uid="{F1DF3BD2-79DF-40B5-88BF-07347693B74B}" name="Term Accession Number (NFDI4PSO:0000053)"/>
-    <tableColumn id="27" xr3:uid="{AB759702-8D25-4A5B-8E3A-D7F01F233C52}" name="Parameter [Chromatography column model]"/>
-    <tableColumn id="28" xr3:uid="{92E6430B-5F71-4F27-BD96-A2BD521926B1}" name="Term Source REF (NFDI4PSO:0000048)"/>
-    <tableColumn id="29" xr3:uid="{63596186-A3BD-4E71-8FBF-F6C616076F6D}" name="Term Accession Number (NFDI4PSO:0000048)"/>
-    <tableColumn id="30" xr3:uid="{FAE6E997-B3A8-4424-9650-B2F311D92DDC}" name="Parameter [Chromatography guard column model]"/>
-    <tableColumn id="31" xr3:uid="{F07CFC29-4413-4578-AD67-CFBF6137407F}" name="Term Source REF (NFDI4PSO:0000049)"/>
-    <tableColumn id="32" xr3:uid="{8A99F669-1139-4E19-BA8D-B8631A55C298}" name="Term Accession Number (NFDI4PSO:0000049)"/>
-    <tableColumn id="33" xr3:uid="{13E6A203-057B-4597-AA82-D1B7931C4120}" name="Parameter [mobile phase]"/>
-    <tableColumn id="34" xr3:uid="{9AC50536-1646-4B2D-B06E-8A170F618B53}" name="Term Source REF (NFDI4PSO:0000080)"/>
-    <tableColumn id="35" xr3:uid="{91CFAAFA-B220-4077-85D4-B228AA237407}" name="Term Accession Number (NFDI4PSO:0000080)"/>
-    <tableColumn id="36" xr3:uid="{B824E79D-3B9B-450D-8337-DE71465C8B7F}" name="Parameter [elution]"/>
-    <tableColumn id="37" xr3:uid="{103EF1CA-DD78-4C42-A523-DE03D3089A97}" name="Term Source REF (NFDI4PSO:0000081)"/>
-    <tableColumn id="38" xr3:uid="{752AA6F6-D964-4327-9FDB-AE6EB03B235B}" name="Term Accession Number (NFDI4PSO:0000081)"/>
+    <tableColumn id="63" xr3:uid="{0E6791E4-7E15-4E76-A701-5708F3A7218D}" name="Protocol Type"/>
+    <tableColumn id="64" xr3:uid="{83087F6A-A20B-42E8-891E-829F442D404D}" name="Term Source REF (DPBO:1000161)" dataDxfId="35"/>
+    <tableColumn id="65" xr3:uid="{CA9343C9-B4F8-43CB-AF61-BF71F7F10912}" name="Term Accession Number (DPBO:1000161)" dataDxfId="34"/>
+    <tableColumn id="66" xr3:uid="{F586869E-B2CC-4719-9D96-2A83C2DED9BC}" name="Parameter [MS sample post-extraction] " dataDxfId="33"/>
+    <tableColumn id="67" xr3:uid="{F813AA88-DD54-4CFB-AEA0-3DE4239EF2E2}" name="Term Source REF (DPBO:0000043)" dataDxfId="32"/>
+    <tableColumn id="68" xr3:uid="{5833B7BA-A640-4E50-90FC-48C6E55B86D9}" name="Term Accession Number (DPBO:0000043)" dataDxfId="31"/>
+    <tableColumn id="69" xr3:uid="{97330FD3-F6C5-47B0-ADDE-0328D8E7901E}" name="Parameter [MS sample resuspension] "/>
+    <tableColumn id="70" xr3:uid="{3B2D6708-EDA2-4580-9A10-449375E5E861}" name="Term Source REF (DPBO:0000044)" dataDxfId="30"/>
+    <tableColumn id="71" xr3:uid="{6B0642B0-1A4C-497D-AEF2-7B2C3DDD53E7}" name="Term Accession Number (DPBO:0000044)" dataDxfId="29"/>
+    <tableColumn id="72" xr3:uid="{B26CC7F8-52BF-4623-8CFE-77C42C042A88}" name="Parameter [MS sample type] " dataDxfId="28"/>
+    <tableColumn id="73" xr3:uid="{5797CEE3-34DD-4379-A42A-787820AA13A0}" name="Term Source REF (DPBO:0000045)" dataDxfId="27"/>
+    <tableColumn id="74" xr3:uid="{27CE24C2-224B-4043-96EF-DF2C9C37FFA2}" name="Term Accession Number (DPBO:0000045)" dataDxfId="26"/>
+    <tableColumn id="75" xr3:uid="{E615A6FE-9B64-43F1-BBA7-92E1A3859666}" name="Parameter [MS derivatization] "/>
+    <tableColumn id="76" xr3:uid="{3DB01F03-91BC-46C7-A308-8738D057352F}" name="Term Source REF (DPBO:0000052)" dataDxfId="25"/>
+    <tableColumn id="77" xr3:uid="{F1D04D4D-6E29-406A-B230-D1D2D208A245}" name="Term Accession Number (DPBO:0000052)" dataDxfId="24"/>
+    <tableColumn id="78" xr3:uid="{B1E9D657-4652-40CA-84E8-211D381E8F77}" name="Parameter [label] "/>
+    <tableColumn id="79" xr3:uid="{07728AD4-252E-493E-A60E-FF33A1952D42}" name="Term Source REF (CHEBI:35209)" dataDxfId="23"/>
+    <tableColumn id="80" xr3:uid="{7E9F6FBA-E651-426D-B372-4AE1F4EA1DA0}" name="Term Accession Number (CHEBI:35209)" dataDxfId="22"/>
+    <tableColumn id="81" xr3:uid="{B21B4F7A-2164-4366-A8BD-6B5D41F5EFC8}" name="Component [chromatography instrument model]" dataDxfId="21"/>
+    <tableColumn id="82" xr3:uid="{99C1717E-58D5-47DB-8A47-A6E365B57E15}" name="Term Source REF (DPBO:0000046)" dataDxfId="20"/>
+    <tableColumn id="83" xr3:uid="{F62C4EC3-53A0-4044-A012-1FDF9C24C7FC}" name="Term Accession Number (DPBO:0000046)" dataDxfId="19"/>
+    <tableColumn id="84" xr3:uid="{E3FC2982-EF66-4FC0-BF41-5A42F2AC49B6}" name="Component [chromatography autosampler model]"/>
+    <tableColumn id="85" xr3:uid="{172FE022-17B7-4547-B637-C2FC0A0DEB52}" name="Term Source REF (DPBO:0000047)" dataDxfId="18"/>
+    <tableColumn id="86" xr3:uid="{CB062D9D-F355-40DF-BA02-3059E4D85708}" name="Term Accession Number (DPBO:0000047)" dataDxfId="17"/>
+    <tableColumn id="88" xr3:uid="{007DFB11-B83C-45D4-8297-752C151435DC}" name="Parameter [chromatography column type]" dataDxfId="16"/>
+    <tableColumn id="89" xr3:uid="{A6289C39-00BA-410D-B210-D650FF5E8FD4}" name="Term Source REF (DPBO:0000053)" dataDxfId="15"/>
+    <tableColumn id="90" xr3:uid="{4F4E93AB-E4C2-42BF-9F30-21EED47C3B9F}" name="Term Accession Number (DPBO:0000053)" dataDxfId="14"/>
+    <tableColumn id="91" xr3:uid="{CB6A44FB-D9BF-4EFB-A5E4-8E8C0A26ADFA}" name="Parameter [chromatography column model]" dataDxfId="13"/>
+    <tableColumn id="92" xr3:uid="{25E2AB53-3EAC-49CB-A43A-1E7DD5B5CE93}" name="Term Source REF (DPBO:0000048)" dataDxfId="12"/>
+    <tableColumn id="93" xr3:uid="{02ED0E48-429C-4B50-90C5-E30FC6B595F9}" name="Term Accession Number (DPBO:0000048)" dataDxfId="11"/>
+    <tableColumn id="94" xr3:uid="{F138D38D-847C-47DC-91D0-0010104188BD}" name="Parameter [chromatography guard column model]" dataDxfId="10"/>
+    <tableColumn id="95" xr3:uid="{2589FAD4-7D30-4568-9F5D-4544CDE9B2E3}" name="Term Source REF (DPBO:0000049)" dataDxfId="9"/>
+    <tableColumn id="96" xr3:uid="{6B536D25-2447-4419-99E8-23843FA0CF6B}" name="Term Accession Number (DPBO:0000049)" dataDxfId="8"/>
+    <tableColumn id="97" xr3:uid="{667414D2-CB1D-4C4C-B01D-4E7CFF7918F2}" name="Parameter [mobile phase]" dataDxfId="7"/>
+    <tableColumn id="98" xr3:uid="{DB107107-3E1D-44BE-BA93-9C93CD18B52E}" name="Term Source REF (CHMO:0000995)" dataDxfId="6"/>
+    <tableColumn id="99" xr3:uid="{D103CE19-4C6C-4BB5-BF2E-4D24375896AF}" name="Term Accession Number (CHMO:0000995)" dataDxfId="5"/>
+    <tableColumn id="100" xr3:uid="{2FE4EAE6-4D21-48EA-89DC-BD0D395977C0}" name="Parameter [elution] " dataDxfId="4"/>
+    <tableColumn id="101" xr3:uid="{5D49259F-7969-4AD9-8036-DE0531EB467E}" name="Term Source REF ()" dataDxfId="3"/>
+    <tableColumn id="102" xr3:uid="{B3CBB18F-D1AE-45E9-BA1C-75D6BE9D983C}" name="Term Accession Number ()" dataDxfId="2"/>
     <tableColumn id="39" xr3:uid="{109BD3E0-06CF-4571-8438-09A88660F822}" name="Parameter [scan polarity]"/>
     <tableColumn id="40" xr3:uid="{4E0B2440-5FD0-4A8B-9927-BA270C48E0CE}" name="Term Source REF (MS:1000465)"/>
     <tableColumn id="41" xr3:uid="{D8B0A30C-A5F0-420B-B68B-A5AC2A02D2E3}" name="Term Accession Number (MS:1000465)"/>
-    <tableColumn id="42" xr3:uid="{0E0EB8CE-FD7E-4171-B365-D47C572603C1}" name="Parameter [scan window lower limit]" dataDxfId="1"/>
+    <tableColumn id="42" xr3:uid="{0E0EB8CE-FD7E-4171-B365-D47C572603C1}" name="Parameter [scan window lower limit]" dataDxfId="37"/>
     <tableColumn id="43" xr3:uid="{25EA6CD4-34C1-4F01-B63C-ECF74CE0E831}" name="Term Source REF (MS:1000501)"/>
     <tableColumn id="44" xr3:uid="{12A46C90-C509-4330-8CDE-46A2985A7BC5}" name="Term Accession Number (MS:1000501)"/>
-    <tableColumn id="45" xr3:uid="{6687468A-639D-4D6F-81D2-588A3C9D554F}" name="Parameter [scan window upper limit]" dataDxfId="0"/>
+    <tableColumn id="45" xr3:uid="{6687468A-639D-4D6F-81D2-588A3C9D554F}" name="Parameter [scan window upper limit]" dataDxfId="36"/>
     <tableColumn id="46" xr3:uid="{BC02F7C9-0598-4E88-AFFF-33AC587C2495}" name="Term Source REF (MS:1000500)"/>
     <tableColumn id="47" xr3:uid="{8ECBD557-7283-4A7C-BD07-8DEBDA70B6E5}" name="Term Accession Number (MS:1000500)"/>
-    <tableColumn id="48" xr3:uid="{C140CC98-619D-46DC-91FE-B6AE61614E2F}" name="Parameter [instrument model]"/>
-    <tableColumn id="49" xr3:uid="{DDC53380-FC4B-4176-A308-0D9B3092989A}" name="Term Source REF (MS:1000031)"/>
-    <tableColumn id="50" xr3:uid="{008062C0-86AE-4051-9A2F-304D494606D4}" name="Term Accession Number (MS:1000031)"/>
+    <tableColumn id="103" xr3:uid="{D77962FA-C8D9-4CB8-AA3A-BC750204D7D5}" name="Component [instrument model]"/>
+    <tableColumn id="104" xr3:uid="{D7AC919B-AAA2-4CD0-950D-A9859DEF4628}" name="Term Source REF (MS:1000031) " dataDxfId="1"/>
+    <tableColumn id="105" xr3:uid="{E97FDE12-CF7C-449A-9993-4356B7C21D3C}" name="Term Accession Number (MS:1000031) " dataDxfId="0"/>
     <tableColumn id="51" xr3:uid="{2B135E7C-0901-4349-8845-966A3E63F3D3}" name="Parameter [ionization type]"/>
     <tableColumn id="52" xr3:uid="{04FE9A9C-348C-466C-A083-F0550D1B2419}" name="Term Source REF (MS:1000008)"/>
     <tableColumn id="53" xr3:uid="{ECAA62AE-F868-4DD0-B5C6-A8FAC076E398}" name="Term Accession Number (MS:1000008)"/>
@@ -1469,7 +1602,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="639" row="2">
+  <wetp:taskpane dockstate="right" visibility="0" width="740" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="632" row="2">
@@ -1500,740 +1633,1030 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ6"/>
+  <dimension ref="A1:BO6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="39" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="70" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="21" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="36.7109375" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="43.7109375" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="36.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="36.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="28" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="30.5703125" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="40" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="33" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="40" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="33" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="40" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="40" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="31" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="38.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="33" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="40" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="49" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="33" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="40" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="33" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="40" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="43" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="33" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="40" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="33" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="40" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.7109375" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="40.85546875" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="27" style="13" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="26" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="36.85546875" style="13" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="37" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="37" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="49" max="49" width="31" hidden="1" customWidth="1"/>
+    <col min="50" max="50" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.140625" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="38.28515625" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="31.7109375" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="26.85546875" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="38.5703125" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="0" hidden="1" customWidth="1"/>
+    <col min="67" max="67" width="15.7109375" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
+        <v>214</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>215</v>
       </c>
       <c r="E1" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="F1" t="s">
-        <v>6</v>
+        <v>217</v>
       </c>
       <c r="G1" t="s">
-        <v>7</v>
+        <v>218</v>
       </c>
       <c r="H1" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="I1" t="s">
-        <v>9</v>
+        <v>220</v>
       </c>
       <c r="J1" t="s">
-        <v>10</v>
+        <v>221</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>222</v>
       </c>
       <c r="L1" t="s">
+        <v>223</v>
+      </c>
+      <c r="M1" t="s">
+        <v>224</v>
+      </c>
+      <c r="N1" t="s">
+        <v>225</v>
+      </c>
+      <c r="O1" t="s">
+        <v>226</v>
+      </c>
+      <c r="P1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>228</v>
+      </c>
+      <c r="R1" t="s">
+        <v>229</v>
+      </c>
+      <c r="S1" t="s">
+        <v>230</v>
+      </c>
+      <c r="T1" t="s">
+        <v>231</v>
+      </c>
+      <c r="U1" t="s">
+        <v>232</v>
+      </c>
+      <c r="V1" t="s">
+        <v>233</v>
+      </c>
+      <c r="W1" t="s">
+        <v>234</v>
+      </c>
+      <c r="X1" t="s">
+        <v>235</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>236</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>237</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>238</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>239</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>240</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>243</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>244</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="AJ1" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>249</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AO1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" t="s">
+      <c r="AP1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" t="s">
+      <c r="AQ1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AR1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AS1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AT1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AU1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AV1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AW1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="AX1" t="s">
+        <v>251</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>252</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>253</v>
+      </c>
+      <c r="BA1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="BB1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="BC1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="BD1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BE1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="BF1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="BG1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="BH1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="BI1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="BJ1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="BK1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="BL1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AO1" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AR1" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AX1" t="s">
+      <c r="BM1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F2" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" t="s">
+        <v>164</v>
+      </c>
+      <c r="I2" t="s">
+        <v>192</v>
+      </c>
+      <c r="J2" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" t="s">
+        <v>166</v>
+      </c>
+      <c r="L2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N2" t="s">
+        <v>170</v>
+      </c>
+      <c r="O2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>174</v>
+      </c>
+      <c r="R2" t="s">
+        <v>192</v>
+      </c>
+      <c r="S2" t="s">
+        <v>192</v>
+      </c>
+      <c r="T2" t="s">
+        <v>176</v>
+      </c>
+      <c r="U2" t="s">
+        <v>192</v>
+      </c>
+      <c r="V2" t="s">
+        <v>192</v>
+      </c>
+      <c r="W2" s="14"/>
+      <c r="X2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR2" s="13">
         <v>50</v>
       </c>
-      <c r="AY1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BH1" t="s">
+      <c r="AS2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU2" s="13">
+        <v>1300</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>106</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="B3" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" t="s">
+        <v>192</v>
+      </c>
+      <c r="H3" t="s">
+        <v>165</v>
+      </c>
+      <c r="I3" t="s">
+        <v>192</v>
+      </c>
+      <c r="J3" t="s">
+        <v>192</v>
+      </c>
+      <c r="K3" t="s">
+        <v>167</v>
+      </c>
+      <c r="L3" t="s">
+        <v>192</v>
+      </c>
+      <c r="M3" t="s">
+        <v>192</v>
+      </c>
+      <c r="N3" t="s">
+        <v>171</v>
+      </c>
+      <c r="O3" t="s">
+        <v>192</v>
+      </c>
+      <c r="P3" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>175</v>
+      </c>
+      <c r="R3" t="s">
+        <v>192</v>
+      </c>
+      <c r="S3" t="s">
+        <v>192</v>
+      </c>
+      <c r="T3" t="s">
+        <v>177</v>
+      </c>
+      <c r="U3" t="s">
+        <v>192</v>
+      </c>
+      <c r="V3" t="s">
+        <v>192</v>
+      </c>
+      <c r="W3" s="14"/>
+      <c r="X3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN3" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO3" t="s">
+        <v>182</v>
+      </c>
+      <c r="AP3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AR3" s="13">
         <v>60</v>
       </c>
-      <c r="BI1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="AS3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU3" s="13">
+        <v>1200</v>
+      </c>
+      <c r="AV3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX3" t="s">
+        <v>184</v>
+      </c>
+      <c r="AY3" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA3" t="s">
+        <v>187</v>
+      </c>
+      <c r="BB3" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC3" t="s">
+        <v>195</v>
+      </c>
+      <c r="BD3" t="s">
+        <v>191</v>
+      </c>
+      <c r="BE3" t="s">
+        <v>192</v>
+      </c>
+      <c r="BF3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="B4" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" t="s">
+        <v>192</v>
+      </c>
+      <c r="G4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" t="s">
+        <v>81</v>
+      </c>
+      <c r="M4" t="s">
+        <v>194</v>
+      </c>
+      <c r="N4" t="s">
+        <v>172</v>
+      </c>
+      <c r="O4" t="s">
+        <v>192</v>
+      </c>
+      <c r="P4" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="S4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T4" t="s">
+        <v>178</v>
+      </c>
+      <c r="U4" t="s">
+        <v>192</v>
+      </c>
+      <c r="V4" t="s">
+        <v>192</v>
+      </c>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN4" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ4"/>
+      <c r="AR4" s="13">
+        <v>50</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AU4" s="13">
+        <v>650</v>
+      </c>
+      <c r="AV4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AX4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AY4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ4" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>188</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC4" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G5" t="s">
+        <v>192</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K5" t="s">
+        <v>168</v>
+      </c>
+      <c r="L5" t="s">
+        <v>192</v>
+      </c>
+      <c r="M5" t="s">
+        <v>192</v>
+      </c>
+      <c r="N5" t="s">
+        <v>173</v>
+      </c>
+      <c r="O5" t="s">
+        <v>192</v>
+      </c>
+      <c r="P5" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="S5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T5" t="s">
+        <v>179</v>
+      </c>
+      <c r="U5" t="s">
+        <v>192</v>
+      </c>
+      <c r="V5" t="s">
+        <v>192</v>
+      </c>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN5" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ5"/>
+      <c r="AR5" s="13"/>
+      <c r="AU5" s="13"/>
+      <c r="AX5" t="s">
+        <v>186</v>
+      </c>
+      <c r="AY5" t="s">
+        <v>192</v>
+      </c>
+      <c r="AZ5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BA5" t="s">
         <v>189</v>
       </c>
-      <c r="C2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D2" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" t="s">
-        <v>233</v>
-      </c>
-      <c r="H2" t="s">
-        <v>195</v>
-      </c>
-      <c r="I2" t="s">
-        <v>233</v>
-      </c>
-      <c r="J2" t="s">
-        <v>233</v>
-      </c>
-      <c r="K2" t="s">
-        <v>199</v>
-      </c>
-      <c r="L2" t="s">
-        <v>233</v>
-      </c>
-      <c r="M2" t="s">
-        <v>233</v>
-      </c>
-      <c r="N2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O2" t="s">
-        <v>233</v>
-      </c>
-      <c r="P2" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>205</v>
-      </c>
-      <c r="R2" t="s">
-        <v>233</v>
-      </c>
-      <c r="S2" t="s">
-        <v>233</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="BB5" t="s">
+        <v>192</v>
+      </c>
+      <c r="BC5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="D6" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="U2" t="s">
-        <v>233</v>
-      </c>
-      <c r="V2" t="s">
-        <v>233</v>
-      </c>
-      <c r="W2" t="s">
-        <v>211</v>
-      </c>
-      <c r="X2" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>213</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>218</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>220</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>222</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO2" s="13">
-        <v>50</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR2" s="13">
-        <v>1300</v>
-      </c>
-      <c r="AS2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU2" t="s">
-        <v>224</v>
-      </c>
-      <c r="AV2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW2" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>228</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BB2" t="s">
-        <v>135</v>
-      </c>
-      <c r="BC2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" t="s">
-        <v>233</v>
-      </c>
-      <c r="D3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" t="s">
-        <v>194</v>
-      </c>
-      <c r="F3" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" t="s">
-        <v>196</v>
-      </c>
-      <c r="I3" t="s">
-        <v>233</v>
-      </c>
-      <c r="J3" t="s">
-        <v>233</v>
-      </c>
-      <c r="K3" t="s">
-        <v>200</v>
-      </c>
-      <c r="L3" t="s">
-        <v>233</v>
-      </c>
-      <c r="M3" t="s">
-        <v>233</v>
-      </c>
-      <c r="N3" t="s">
-        <v>204</v>
-      </c>
-      <c r="O3" t="s">
-        <v>233</v>
-      </c>
-      <c r="P3" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>206</v>
-      </c>
-      <c r="R3" t="s">
-        <v>233</v>
-      </c>
-      <c r="S3" t="s">
-        <v>233</v>
-      </c>
-      <c r="W3" t="s">
-        <v>212</v>
-      </c>
-      <c r="X3" t="s">
-        <v>233</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>219</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>221</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AN3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO3" s="13">
-        <v>60</v>
-      </c>
-      <c r="AP3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR3" s="13">
-        <v>1200</v>
-      </c>
-      <c r="AS3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU3" t="s">
-        <v>225</v>
-      </c>
-      <c r="AV3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW3" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>228</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>236</v>
-      </c>
-      <c r="BA3" t="s">
-        <v>232</v>
-      </c>
-      <c r="BB3" t="s">
-        <v>233</v>
-      </c>
-      <c r="BC3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" t="s">
-        <v>110</v>
-      </c>
-      <c r="J4" t="s">
-        <v>235</v>
-      </c>
-      <c r="K4" t="s">
-        <v>201</v>
-      </c>
-      <c r="L4" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>207</v>
-      </c>
-      <c r="R4" t="s">
-        <v>233</v>
-      </c>
-      <c r="S4" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>215</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AO4" s="13">
-        <v>50</v>
-      </c>
-      <c r="AP4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AQ4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AR4" s="13">
-        <v>650</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>229</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>192</v>
-      </c>
-      <c r="C5" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5" t="s">
-        <v>197</v>
-      </c>
-      <c r="I5" t="s">
-        <v>233</v>
-      </c>
-      <c r="J5" t="s">
-        <v>233</v>
-      </c>
-      <c r="K5" t="s">
-        <v>202</v>
-      </c>
-      <c r="L5" t="s">
-        <v>233</v>
-      </c>
-      <c r="M5" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>208</v>
-      </c>
-      <c r="R5" t="s">
-        <v>233</v>
-      </c>
-      <c r="S5" t="s">
-        <v>233</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AU5" t="s">
-        <v>227</v>
-      </c>
-      <c r="AV5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AW5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AX5" t="s">
-        <v>230</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>233</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="6" spans="1:62" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>198</v>
-      </c>
-      <c r="I6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>209</v>
-      </c>
-      <c r="R6" t="s">
-        <v>233</v>
-      </c>
-      <c r="S6" t="s">
-        <v>233</v>
+      <c r="E6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="K6" t="s">
+        <v>169</v>
+      </c>
+      <c r="L6" t="s">
+        <v>192</v>
+      </c>
+      <c r="M6" t="s">
+        <v>192</v>
+      </c>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="R6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="T6" t="s">
+        <v>180</v>
+      </c>
+      <c r="U6" t="s">
+        <v>192</v>
+      </c>
+      <c r="V6" t="s">
+        <v>192</v>
+      </c>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AB6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AF6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AG6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AH6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AI6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AK6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AN6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AQ6"/>
+      <c r="AR6" s="13"/>
+      <c r="AU6" s="13"/>
+      <c r="AX6" s="14"/>
+      <c r="AY6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AZ6" s="14" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2249,94 +2672,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8CD2-D7D8-47D1-8355-3B292012E9B8}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>239</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>87</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>240</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>89</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="6"/>
+        <v>44</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="6"/>
+        <v>45</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -2344,37 +2772,49 @@
     </row>
     <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
+        <v>49</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -2382,31 +2822,31 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>96</v>
+        <v>67</v>
       </c>
       <c r="D17" s="6"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>79</v>
+        <v>53</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -2414,7 +2854,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -2422,7 +2862,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -2430,7 +2870,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -2438,7 +2878,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -2446,7 +2886,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -2454,7 +2894,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>241</v>
+        <v>200</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2462,7 +2902,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2470,7 +2910,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2478,7 +2918,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>244</v>
+        <v>203</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2514,40 +2954,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="H1" s="11" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="J1" s="11" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="K1" s="11" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="L1" s="11" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -2555,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2581,19 +3021,19 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2607,685 +3047,685 @@
         <v>2</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="L4" s="12"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>151</v>
+        <v>122</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="L5" s="12"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>115</v>
+        <v>86</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>121</v>
+        <v>92</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="I9" s="12" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="J9" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
       <c r="I10" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J10" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D11" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="12" t="s">
         <v>125</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>154</v>
       </c>
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>126</v>
+        <v>97</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>127</v>
+        <v>98</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="I12" s="12" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="J12" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>129</v>
+        <v>100</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="I13" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>132</v>
+        <v>103</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>110</v>
+        <v>81</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>133</v>
+        <v>104</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J15" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>134</v>
+        <v>105</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I16" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="I16" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="J16" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="J17" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="L17" s="12"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="C18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="H18" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="J18" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
       <c r="L18" s="12"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>141</v>
+        <v>112</v>
       </c>
       <c r="C19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="I19" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="J19" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>143</v>
+        <v>114</v>
       </c>
       <c r="C20" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="J20" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>145</v>
+        <v>116</v>
       </c>
       <c r="C21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="H21" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>164</v>
-      </c>
       <c r="J21" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>148</v>
+        <v>119</v>
       </c>
       <c r="E22" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F22" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K22" s="12"/>
       <c r="L22" s="12"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>149</v>
+        <v>120</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>135</v>
+        <v>106</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>150</v>
+        <v>121</v>
       </c>
       <c r="E23" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="F23" s="12" t="s">
-        <v>97</v>
+        <v>68</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>

--- a/templates/dataplant/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY03_MetabolomicsMassSpec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD251EF3-EBB4-4BC4-B344-19FD8B43447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2773098A-61FC-4A62-B3BC-9BF4C1ED1365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -128,7 +128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="245">
   <si>
     <t>Source Name</t>
   </si>
@@ -658,37 +658,10 @@
     <t>15N</t>
   </si>
   <si>
-    <t>Thermo Scientific Dionex Ultimate 3000 HPLC system</t>
-  </si>
-  <si>
-    <t>Agilent 7890B GC</t>
-  </si>
-  <si>
-    <t>Agilent 5975T LTM GC</t>
-  </si>
-  <si>
-    <t>Waters ACQUITY UPLC system</t>
-  </si>
-  <si>
-    <t>Thermo Scientific Vanquish UHPLC System</t>
-  </si>
-  <si>
     <t>positive</t>
   </si>
   <si>
     <t>negative</t>
-  </si>
-  <si>
-    <t>Bruker maXis 4G UHR-ToF</t>
-  </si>
-  <si>
-    <t>Waters SYNAPT HDMS System</t>
-  </si>
-  <si>
-    <t>Agilent 5975C inert XL MSD</t>
-  </si>
-  <si>
-    <t>Agilent 6560 Ion Mobility Q-TOF</t>
   </si>
   <si>
     <t>electrospray ionization</t>
@@ -1103,6 +1076,12 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1203,12 +1182,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1236,51 +1209,51 @@
   <tableColumns count="65">
     <tableColumn id="1" xr3:uid="{3EFB8194-FD75-4232-BFAD-99FDD6998F2F}" name="Source Name"/>
     <tableColumn id="63" xr3:uid="{0E6791E4-7E15-4E76-A701-5708F3A7218D}" name="Protocol Type"/>
-    <tableColumn id="64" xr3:uid="{83087F6A-A20B-42E8-891E-829F442D404D}" name="Term Source REF (DPBO:1000161)" dataDxfId="35"/>
-    <tableColumn id="65" xr3:uid="{CA9343C9-B4F8-43CB-AF61-BF71F7F10912}" name="Term Accession Number (DPBO:1000161)" dataDxfId="34"/>
-    <tableColumn id="66" xr3:uid="{F586869E-B2CC-4719-9D96-2A83C2DED9BC}" name="Parameter [MS sample post-extraction] " dataDxfId="33"/>
-    <tableColumn id="67" xr3:uid="{F813AA88-DD54-4CFB-AEA0-3DE4239EF2E2}" name="Term Source REF (DPBO:0000043)" dataDxfId="32"/>
-    <tableColumn id="68" xr3:uid="{5833B7BA-A640-4E50-90FC-48C6E55B86D9}" name="Term Accession Number (DPBO:0000043)" dataDxfId="31"/>
+    <tableColumn id="64" xr3:uid="{83087F6A-A20B-42E8-891E-829F442D404D}" name="Term Source REF (DPBO:1000161)" dataDxfId="37"/>
+    <tableColumn id="65" xr3:uid="{CA9343C9-B4F8-43CB-AF61-BF71F7F10912}" name="Term Accession Number (DPBO:1000161)" dataDxfId="36"/>
+    <tableColumn id="66" xr3:uid="{F586869E-B2CC-4719-9D96-2A83C2DED9BC}" name="Parameter [MS sample post-extraction] " dataDxfId="35"/>
+    <tableColumn id="67" xr3:uid="{F813AA88-DD54-4CFB-AEA0-3DE4239EF2E2}" name="Term Source REF (DPBO:0000043)" dataDxfId="34"/>
+    <tableColumn id="68" xr3:uid="{5833B7BA-A640-4E50-90FC-48C6E55B86D9}" name="Term Accession Number (DPBO:0000043)" dataDxfId="33"/>
     <tableColumn id="69" xr3:uid="{97330FD3-F6C5-47B0-ADDE-0328D8E7901E}" name="Parameter [MS sample resuspension] "/>
-    <tableColumn id="70" xr3:uid="{3B2D6708-EDA2-4580-9A10-449375E5E861}" name="Term Source REF (DPBO:0000044)" dataDxfId="30"/>
-    <tableColumn id="71" xr3:uid="{6B0642B0-1A4C-497D-AEF2-7B2C3DDD53E7}" name="Term Accession Number (DPBO:0000044)" dataDxfId="29"/>
-    <tableColumn id="72" xr3:uid="{B26CC7F8-52BF-4623-8CFE-77C42C042A88}" name="Parameter [MS sample type] " dataDxfId="28"/>
-    <tableColumn id="73" xr3:uid="{5797CEE3-34DD-4379-A42A-787820AA13A0}" name="Term Source REF (DPBO:0000045)" dataDxfId="27"/>
-    <tableColumn id="74" xr3:uid="{27CE24C2-224B-4043-96EF-DF2C9C37FFA2}" name="Term Accession Number (DPBO:0000045)" dataDxfId="26"/>
+    <tableColumn id="70" xr3:uid="{3B2D6708-EDA2-4580-9A10-449375E5E861}" name="Term Source REF (DPBO:0000044)" dataDxfId="32"/>
+    <tableColumn id="71" xr3:uid="{6B0642B0-1A4C-497D-AEF2-7B2C3DDD53E7}" name="Term Accession Number (DPBO:0000044)" dataDxfId="31"/>
+    <tableColumn id="72" xr3:uid="{B26CC7F8-52BF-4623-8CFE-77C42C042A88}" name="Parameter [MS sample type] " dataDxfId="30"/>
+    <tableColumn id="73" xr3:uid="{5797CEE3-34DD-4379-A42A-787820AA13A0}" name="Term Source REF (DPBO:0000045)" dataDxfId="29"/>
+    <tableColumn id="74" xr3:uid="{27CE24C2-224B-4043-96EF-DF2C9C37FFA2}" name="Term Accession Number (DPBO:0000045)" dataDxfId="28"/>
     <tableColumn id="75" xr3:uid="{E615A6FE-9B64-43F1-BBA7-92E1A3859666}" name="Parameter [MS derivatization] "/>
-    <tableColumn id="76" xr3:uid="{3DB01F03-91BC-46C7-A308-8738D057352F}" name="Term Source REF (DPBO:0000052)" dataDxfId="25"/>
-    <tableColumn id="77" xr3:uid="{F1D04D4D-6E29-406A-B230-D1D2D208A245}" name="Term Accession Number (DPBO:0000052)" dataDxfId="24"/>
+    <tableColumn id="76" xr3:uid="{3DB01F03-91BC-46C7-A308-8738D057352F}" name="Term Source REF (DPBO:0000052)" dataDxfId="27"/>
+    <tableColumn id="77" xr3:uid="{F1D04D4D-6E29-406A-B230-D1D2D208A245}" name="Term Accession Number (DPBO:0000052)" dataDxfId="26"/>
     <tableColumn id="78" xr3:uid="{B1E9D657-4652-40CA-84E8-211D381E8F77}" name="Parameter [label] "/>
-    <tableColumn id="79" xr3:uid="{07728AD4-252E-493E-A60E-FF33A1952D42}" name="Term Source REF (CHEBI:35209)" dataDxfId="23"/>
-    <tableColumn id="80" xr3:uid="{7E9F6FBA-E651-426D-B372-4AE1F4EA1DA0}" name="Term Accession Number (CHEBI:35209)" dataDxfId="22"/>
-    <tableColumn id="81" xr3:uid="{B21B4F7A-2164-4366-A8BD-6B5D41F5EFC8}" name="Component [chromatography instrument model]" dataDxfId="21"/>
-    <tableColumn id="82" xr3:uid="{99C1717E-58D5-47DB-8A47-A6E365B57E15}" name="Term Source REF (DPBO:0000046)" dataDxfId="20"/>
-    <tableColumn id="83" xr3:uid="{F62C4EC3-53A0-4044-A012-1FDF9C24C7FC}" name="Term Accession Number (DPBO:0000046)" dataDxfId="19"/>
+    <tableColumn id="79" xr3:uid="{07728AD4-252E-493E-A60E-FF33A1952D42}" name="Term Source REF (CHEBI:35209)" dataDxfId="25"/>
+    <tableColumn id="80" xr3:uid="{7E9F6FBA-E651-426D-B372-4AE1F4EA1DA0}" name="Term Accession Number (CHEBI:35209)" dataDxfId="24"/>
+    <tableColumn id="81" xr3:uid="{B21B4F7A-2164-4366-A8BD-6B5D41F5EFC8}" name="Component [chromatography instrument model]" dataDxfId="23"/>
+    <tableColumn id="82" xr3:uid="{99C1717E-58D5-47DB-8A47-A6E365B57E15}" name="Term Source REF (DPBO:0000046)" dataDxfId="22"/>
+    <tableColumn id="83" xr3:uid="{F62C4EC3-53A0-4044-A012-1FDF9C24C7FC}" name="Term Accession Number (DPBO:0000046)" dataDxfId="21"/>
     <tableColumn id="84" xr3:uid="{E3FC2982-EF66-4FC0-BF41-5A42F2AC49B6}" name="Component [chromatography autosampler model]"/>
-    <tableColumn id="85" xr3:uid="{172FE022-17B7-4547-B637-C2FC0A0DEB52}" name="Term Source REF (DPBO:0000047)" dataDxfId="18"/>
-    <tableColumn id="86" xr3:uid="{CB062D9D-F355-40DF-BA02-3059E4D85708}" name="Term Accession Number (DPBO:0000047)" dataDxfId="17"/>
-    <tableColumn id="88" xr3:uid="{007DFB11-B83C-45D4-8297-752C151435DC}" name="Parameter [chromatography column type]" dataDxfId="16"/>
-    <tableColumn id="89" xr3:uid="{A6289C39-00BA-410D-B210-D650FF5E8FD4}" name="Term Source REF (DPBO:0000053)" dataDxfId="15"/>
-    <tableColumn id="90" xr3:uid="{4F4E93AB-E4C2-42BF-9F30-21EED47C3B9F}" name="Term Accession Number (DPBO:0000053)" dataDxfId="14"/>
-    <tableColumn id="91" xr3:uid="{CB6A44FB-D9BF-4EFB-A5E4-8E8C0A26ADFA}" name="Parameter [chromatography column model]" dataDxfId="13"/>
-    <tableColumn id="92" xr3:uid="{25E2AB53-3EAC-49CB-A43A-1E7DD5B5CE93}" name="Term Source REF (DPBO:0000048)" dataDxfId="12"/>
-    <tableColumn id="93" xr3:uid="{02ED0E48-429C-4B50-90C5-E30FC6B595F9}" name="Term Accession Number (DPBO:0000048)" dataDxfId="11"/>
-    <tableColumn id="94" xr3:uid="{F138D38D-847C-47DC-91D0-0010104188BD}" name="Parameter [chromatography guard column model]" dataDxfId="10"/>
-    <tableColumn id="95" xr3:uid="{2589FAD4-7D30-4568-9F5D-4544CDE9B2E3}" name="Term Source REF (DPBO:0000049)" dataDxfId="9"/>
-    <tableColumn id="96" xr3:uid="{6B536D25-2447-4419-99E8-23843FA0CF6B}" name="Term Accession Number (DPBO:0000049)" dataDxfId="8"/>
-    <tableColumn id="97" xr3:uid="{667414D2-CB1D-4C4C-B01D-4E7CFF7918F2}" name="Parameter [mobile phase]" dataDxfId="7"/>
-    <tableColumn id="98" xr3:uid="{DB107107-3E1D-44BE-BA93-9C93CD18B52E}" name="Term Source REF (CHMO:0000995)" dataDxfId="6"/>
-    <tableColumn id="99" xr3:uid="{D103CE19-4C6C-4BB5-BF2E-4D24375896AF}" name="Term Accession Number (CHMO:0000995)" dataDxfId="5"/>
-    <tableColumn id="100" xr3:uid="{2FE4EAE6-4D21-48EA-89DC-BD0D395977C0}" name="Parameter [elution] " dataDxfId="4"/>
-    <tableColumn id="101" xr3:uid="{5D49259F-7969-4AD9-8036-DE0531EB467E}" name="Term Source REF ()" dataDxfId="3"/>
-    <tableColumn id="102" xr3:uid="{B3CBB18F-D1AE-45E9-BA1C-75D6BE9D983C}" name="Term Accession Number ()" dataDxfId="2"/>
+    <tableColumn id="85" xr3:uid="{172FE022-17B7-4547-B637-C2FC0A0DEB52}" name="Term Source REF (DPBO:0000047)" dataDxfId="20"/>
+    <tableColumn id="86" xr3:uid="{CB062D9D-F355-40DF-BA02-3059E4D85708}" name="Term Accession Number (DPBO:0000047)" dataDxfId="19"/>
+    <tableColumn id="88" xr3:uid="{007DFB11-B83C-45D4-8297-752C151435DC}" name="Parameter [chromatography column type]" dataDxfId="18"/>
+    <tableColumn id="89" xr3:uid="{A6289C39-00BA-410D-B210-D650FF5E8FD4}" name="Term Source REF (DPBO:0000053)" dataDxfId="17"/>
+    <tableColumn id="90" xr3:uid="{4F4E93AB-E4C2-42BF-9F30-21EED47C3B9F}" name="Term Accession Number (DPBO:0000053)" dataDxfId="16"/>
+    <tableColumn id="91" xr3:uid="{CB6A44FB-D9BF-4EFB-A5E4-8E8C0A26ADFA}" name="Parameter [chromatography column model]" dataDxfId="15"/>
+    <tableColumn id="92" xr3:uid="{25E2AB53-3EAC-49CB-A43A-1E7DD5B5CE93}" name="Term Source REF (DPBO:0000048)" dataDxfId="14"/>
+    <tableColumn id="93" xr3:uid="{02ED0E48-429C-4B50-90C5-E30FC6B595F9}" name="Term Accession Number (DPBO:0000048)" dataDxfId="13"/>
+    <tableColumn id="94" xr3:uid="{F138D38D-847C-47DC-91D0-0010104188BD}" name="Parameter [chromatography guard column model]" dataDxfId="12"/>
+    <tableColumn id="95" xr3:uid="{2589FAD4-7D30-4568-9F5D-4544CDE9B2E3}" name="Term Source REF (DPBO:0000049)" dataDxfId="11"/>
+    <tableColumn id="96" xr3:uid="{6B536D25-2447-4419-99E8-23843FA0CF6B}" name="Term Accession Number (DPBO:0000049)" dataDxfId="10"/>
+    <tableColumn id="97" xr3:uid="{667414D2-CB1D-4C4C-B01D-4E7CFF7918F2}" name="Parameter [mobile phase]" dataDxfId="9"/>
+    <tableColumn id="98" xr3:uid="{DB107107-3E1D-44BE-BA93-9C93CD18B52E}" name="Term Source REF (CHMO:0000995)" dataDxfId="8"/>
+    <tableColumn id="99" xr3:uid="{D103CE19-4C6C-4BB5-BF2E-4D24375896AF}" name="Term Accession Number (CHMO:0000995)" dataDxfId="7"/>
+    <tableColumn id="100" xr3:uid="{2FE4EAE6-4D21-48EA-89DC-BD0D395977C0}" name="Parameter [elution] " dataDxfId="6"/>
+    <tableColumn id="101" xr3:uid="{5D49259F-7969-4AD9-8036-DE0531EB467E}" name="Term Source REF ()" dataDxfId="5"/>
+    <tableColumn id="102" xr3:uid="{B3CBB18F-D1AE-45E9-BA1C-75D6BE9D983C}" name="Term Accession Number ()" dataDxfId="4"/>
     <tableColumn id="39" xr3:uid="{109BD3E0-06CF-4571-8438-09A88660F822}" name="Parameter [scan polarity]"/>
     <tableColumn id="40" xr3:uid="{4E0B2440-5FD0-4A8B-9927-BA270C48E0CE}" name="Term Source REF (MS:1000465)"/>
     <tableColumn id="41" xr3:uid="{D8B0A30C-A5F0-420B-B68B-A5AC2A02D2E3}" name="Term Accession Number (MS:1000465)"/>
-    <tableColumn id="42" xr3:uid="{0E0EB8CE-FD7E-4171-B365-D47C572603C1}" name="Parameter [scan window lower limit]" dataDxfId="37"/>
+    <tableColumn id="42" xr3:uid="{0E0EB8CE-FD7E-4171-B365-D47C572603C1}" name="Parameter [scan window lower limit]" dataDxfId="3"/>
     <tableColumn id="43" xr3:uid="{25EA6CD4-34C1-4F01-B63C-ECF74CE0E831}" name="Term Source REF (MS:1000501)"/>
     <tableColumn id="44" xr3:uid="{12A46C90-C509-4330-8CDE-46A2985A7BC5}" name="Term Accession Number (MS:1000501)"/>
-    <tableColumn id="45" xr3:uid="{6687468A-639D-4D6F-81D2-588A3C9D554F}" name="Parameter [scan window upper limit]" dataDxfId="36"/>
+    <tableColumn id="45" xr3:uid="{6687468A-639D-4D6F-81D2-588A3C9D554F}" name="Parameter [scan window upper limit]" dataDxfId="2"/>
     <tableColumn id="46" xr3:uid="{BC02F7C9-0598-4E88-AFFF-33AC587C2495}" name="Term Source REF (MS:1000500)"/>
     <tableColumn id="47" xr3:uid="{8ECBD557-7283-4A7C-BD07-8DEBDA70B6E5}" name="Term Accession Number (MS:1000500)"/>
     <tableColumn id="103" xr3:uid="{D77962FA-C8D9-4CB8-AA3A-BC750204D7D5}" name="Component [instrument model]"/>
@@ -1602,7 +1575,7 @@
 
 <file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
 <wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="740" row="3">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
     <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </wetp:taskpane>
   <wetp:taskpane dockstate="right" visibility="0" width="632" row="2">
@@ -1660,7 +1633,7 @@
     <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="47.5703125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="33" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="40" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="49" bestFit="1" customWidth="1"/>
@@ -1716,121 +1689,121 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F1" t="s">
+        <v>208</v>
+      </c>
+      <c r="G1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1" t="s">
+        <v>211</v>
+      </c>
+      <c r="J1" t="s">
+        <v>212</v>
+      </c>
+      <c r="K1" t="s">
         <v>213</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" t="s">
         <v>214</v>
       </c>
-      <c r="D1" t="s">
+      <c r="M1" t="s">
         <v>215</v>
       </c>
-      <c r="E1" t="s">
+      <c r="N1" t="s">
         <v>216</v>
       </c>
-      <c r="F1" t="s">
+      <c r="O1" t="s">
         <v>217</v>
       </c>
-      <c r="G1" t="s">
+      <c r="P1" t="s">
         <v>218</v>
       </c>
-      <c r="H1" t="s">
+      <c r="Q1" t="s">
         <v>219</v>
       </c>
-      <c r="I1" t="s">
+      <c r="R1" t="s">
         <v>220</v>
       </c>
-      <c r="J1" t="s">
+      <c r="S1" t="s">
         <v>221</v>
       </c>
-      <c r="K1" t="s">
+      <c r="T1" t="s">
         <v>222</v>
       </c>
-      <c r="L1" t="s">
+      <c r="U1" t="s">
         <v>223</v>
       </c>
-      <c r="M1" t="s">
+      <c r="V1" t="s">
         <v>224</v>
       </c>
-      <c r="N1" t="s">
+      <c r="W1" t="s">
         <v>225</v>
       </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
         <v>226</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Y1" t="s">
         <v>227</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Z1" t="s">
         <v>228</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AA1" t="s">
         <v>229</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AB1" t="s">
         <v>230</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AC1" t="s">
         <v>231</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AD1" t="s">
         <v>232</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AE1" t="s">
         <v>233</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>234</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
         <v>235</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AH1" t="s">
         <v>236</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>237</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>239</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>240</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>243</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>244</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>245</v>
       </c>
       <c r="AI1" t="s">
         <v>12</v>
       </c>
       <c r="AJ1" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="AK1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="AL1" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="AM1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="AN1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="AO1" t="s">
         <v>14</v>
@@ -1860,13 +1833,13 @@
         <v>22</v>
       </c>
       <c r="AX1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="AY1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AZ1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="BA1" t="s">
         <v>24</v>
@@ -1910,67 +1883,58 @@
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B2" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
         <v>160</v>
       </c>
       <c r="F2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
         <v>164</v>
       </c>
       <c r="I2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="J2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
         <v>166</v>
       </c>
       <c r="L2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N2" t="s">
         <v>170</v>
       </c>
       <c r="O2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Q2" t="s">
         <v>174</v>
       </c>
       <c r="R2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="S2" t="s">
-        <v>192</v>
-      </c>
-      <c r="T2" t="s">
-        <v>176</v>
-      </c>
-      <c r="U2" t="s">
-        <v>192</v>
-      </c>
-      <c r="V2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="W2" s="14"/>
       <c r="X2" s="14" t="s">
@@ -2025,123 +1989,105 @@
         <v>68</v>
       </c>
       <c r="AO2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="AP2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AQ2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AR2" s="13">
         <v>50</v>
       </c>
       <c r="AS2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AT2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AU2" s="13">
         <v>1300</v>
       </c>
       <c r="AV2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AW2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX2" t="s">
-        <v>183</v>
-      </c>
-      <c r="AY2" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BA2" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BB2" t="s">
         <v>106</v>
       </c>
       <c r="BC2" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BD2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="BE2" t="s">
         <v>106</v>
       </c>
       <c r="BF2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E3" t="s">
         <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
         <v>165</v>
       </c>
       <c r="I3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="J3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="K3" t="s">
         <v>167</v>
       </c>
       <c r="L3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N3" t="s">
         <v>171</v>
       </c>
       <c r="O3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Q3" t="s">
         <v>175</v>
       </c>
       <c r="R3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="S3" t="s">
-        <v>192</v>
-      </c>
-      <c r="T3" t="s">
-        <v>177</v>
-      </c>
-      <c r="U3" t="s">
-        <v>192</v>
-      </c>
-      <c r="V3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="W3" s="14"/>
       <c r="X3" s="14" t="s">
@@ -2196,78 +2142,69 @@
         <v>68</v>
       </c>
       <c r="AO3" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="AP3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AQ3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AR3" s="13">
         <v>60</v>
       </c>
       <c r="AS3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AT3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AU3" s="13">
         <v>1200</v>
       </c>
       <c r="AV3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AW3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AY3" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BA3" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="BB3" t="s">
         <v>106</v>
       </c>
       <c r="BC3" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="BD3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="BE3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BF3" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
         <v>162</v>
       </c>
       <c r="F4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H4" s="14"/>
       <c r="I4" s="14" t="s">
@@ -2277,22 +2214,22 @@
         <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
         <v>81</v>
       </c>
       <c r="M4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="N4" t="s">
         <v>172</v>
       </c>
       <c r="O4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Q4" s="14"/>
       <c r="R4" s="14" t="s">
@@ -2300,15 +2237,6 @@
       </c>
       <c r="S4" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="T4" t="s">
-        <v>178</v>
-      </c>
-      <c r="U4" t="s">
-        <v>192</v>
-      </c>
-      <c r="V4" t="s">
-        <v>192</v>
       </c>
       <c r="W4" s="14"/>
       <c r="X4" s="14" t="s">
@@ -2367,57 +2295,48 @@
         <v>50</v>
       </c>
       <c r="AS4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AT4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AU4" s="13">
         <v>650</v>
       </c>
       <c r="AV4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="AW4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX4" t="s">
-        <v>185</v>
-      </c>
-      <c r="AY4" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BA4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="BB4" t="s">
         <v>106</v>
       </c>
       <c r="BC4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E5" t="s">
         <v>163</v>
       </c>
       <c r="F5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="G5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="H5" s="14"/>
       <c r="I5" s="14" t="s">
@@ -2430,19 +2349,19 @@
         <v>168</v>
       </c>
       <c r="L5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N5" t="s">
         <v>173</v>
       </c>
       <c r="O5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="P5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="Q5" s="14"/>
       <c r="R5" s="14" t="s">
@@ -2450,15 +2369,6 @@
       </c>
       <c r="S5" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="T5" t="s">
-        <v>179</v>
-      </c>
-      <c r="U5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V5" t="s">
-        <v>192</v>
       </c>
       <c r="W5" s="14"/>
       <c r="X5" s="14" t="s">
@@ -2515,34 +2425,25 @@
       <c r="AQ5"/>
       <c r="AR5" s="13"/>
       <c r="AU5" s="13"/>
-      <c r="AX5" t="s">
-        <v>186</v>
-      </c>
-      <c r="AY5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ5" t="s">
-        <v>192</v>
-      </c>
       <c r="BA5" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="BB5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="BC5" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>68</v>
@@ -2566,10 +2467,10 @@
         <v>169</v>
       </c>
       <c r="L6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="M6" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="N6" s="14"/>
       <c r="O6" s="14" t="s">
@@ -2586,15 +2487,6 @@
       </c>
       <c r="S6" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="T6" t="s">
-        <v>180</v>
-      </c>
-      <c r="U6" t="s">
-        <v>192</v>
-      </c>
-      <c r="V6" t="s">
-        <v>192</v>
       </c>
       <c r="W6" s="14"/>
       <c r="X6" s="14" t="s">
@@ -2672,9 +2564,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8CD2-D7D8-47D1-8355-3B292012E9B8}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2705,7 +2595,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -2721,7 +2611,7 @@
         <v>40</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2743,7 +2633,7 @@
         <v>43</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2751,7 +2641,7 @@
         <v>44</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2759,7 +2649,7 @@
         <v>45</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2778,10 +2668,10 @@
         <v>63</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,13 +2679,13 @@
         <v>48</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2803,13 +2693,13 @@
         <v>49</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2894,7 +2784,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -2902,7 +2792,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -2910,7 +2800,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -2918,7 +2808,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>

--- a/templates/dataplant/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY03_MetabolomicsMassSpec.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\Documents\GitHub\Swate-templates_FORK\templates\dataplant\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06ACB44E-5D69-4B7E-9A12-D25A1914052A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98315268-AC9C-4FCA-BCEF-F0956459039A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
-    <sheet name="SwateTemplateMetadata" sheetId="2" r:id="rId2"/>
+    <sheet name="isa_template" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,75 +50,75 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{4EA42A12-6C89-46B0-9225-BF00D9B2DDCE}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The unique identifier of this template. It will be auto generated.
-Reply:
+Antwort:
     id=b80a7c05-d6eb-428d-b843-bceeb76af642</t>
       </text>
     </comment>
     <comment ref="A2" authorId="1" shapeId="0" xr:uid="{B92A4857-C13E-4E51-8054-4C16283480AA}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate template.</t>
       </text>
     </comment>
     <comment ref="A3" authorId="2" shapeId="0" xr:uid="{706F8ADA-2848-459E-96FA-C8124A3DE149}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The current version of this template in SemVer notation.</t>
       </text>
     </comment>
     <comment ref="A4" authorId="3" shapeId="0" xr:uid="{724E12A0-D147-4F23-9431-AA84655B2004}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The description of this template. Use few sentences for succinctness.</t>
       </text>
     </comment>
     <comment ref="A5" authorId="4" shapeId="0" xr:uid="{8F73237F-4B77-46AE-A6E2-07472B599914}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
       </text>
     </comment>
     <comment ref="A6" authorId="5" shapeId="0" xr:uid="{E9EE0660-C686-4D2F-8C9C-54531867DB56}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The name of the Swate annotation table in the workbook of the template's excel file.</t>
       </text>
     </comment>
     <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A7289A18-1DD6-4AA7-AD56-569C3FDA3C1D}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A11" authorId="7" shapeId="0" xr:uid="{5E301DCC-05A8-42A7-BF29-A2BB145CD1E2}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
       </text>
     </comment>
     <comment ref="A15" authorId="8" shapeId="0" xr:uid="{4D4D0C14-DC90-4096-A1E3-640F48635E0A}">
       <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     The author(s) of this template.</t>
       </text>
     </comment>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="142">
   <si>
     <t>Source Name</t>
   </si>
@@ -409,12 +409,6 @@
   </si>
   <si>
     <t>Authors Role Term Source REF</t>
-  </si>
-  <si>
-    <t>MetaboLights</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DPBO_1000097</t>
   </si>
   <si>
     <t>DPBO</t>
@@ -740,8 +734,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{9AC74787-D67A-4B33-A1D2-9A84BA6D8808}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="38">
     <dxf>
@@ -1287,198 +1281,198 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="40" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="49" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" hidden="1" customWidth="1"/>
     <col min="7" max="7" width="40" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="33" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="40" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="29.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="33" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="40" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="42.88671875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="33" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="40" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="31" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="38.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="47.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="38.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="47.5546875" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="33" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="40" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="49" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="33" hidden="1" customWidth="1"/>
     <col min="25" max="25" width="40" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="33" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="40" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="43" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="33" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="40" hidden="1" customWidth="1"/>
-    <col min="32" max="32" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="48.6640625" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="33" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="40" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="33.7109375" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="40.85546875" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="33.6640625" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="40.88671875" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="20" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="27" style="11" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="26" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="36.85546875" style="11" hidden="1" customWidth="1"/>
-    <col min="44" max="44" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="43" max="43" width="36.88671875" style="11" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="36.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="37.5546875" hidden="1" customWidth="1"/>
     <col min="46" max="46" width="37" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="37" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="37.5703125" hidden="1" customWidth="1"/>
+    <col min="48" max="48" width="37.5546875" hidden="1" customWidth="1"/>
     <col min="49" max="49" width="31" hidden="1" customWidth="1"/>
-    <col min="50" max="50" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="31.140625" hidden="1" customWidth="1"/>
-    <col min="52" max="52" width="38.28515625" hidden="1" customWidth="1"/>
-    <col min="53" max="53" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="55" max="55" width="31.7109375" hidden="1" customWidth="1"/>
-    <col min="56" max="56" width="31.7109375" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="58" max="58" width="26.85546875" hidden="1" customWidth="1"/>
-    <col min="59" max="59" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="37.5703125" hidden="1" customWidth="1"/>
-    <col min="61" max="61" width="38.5703125" hidden="1" customWidth="1"/>
-    <col min="62" max="62" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="64" max="64" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="65" max="65" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="31.109375" hidden="1" customWidth="1"/>
+    <col min="52" max="52" width="38.33203125" hidden="1" customWidth="1"/>
+    <col min="53" max="53" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="55" max="55" width="31.6640625" hidden="1" customWidth="1"/>
+    <col min="56" max="56" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="58" max="58" width="26.88671875" hidden="1" customWidth="1"/>
+    <col min="59" max="59" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="37.5546875" hidden="1" customWidth="1"/>
+    <col min="61" max="61" width="38.5546875" hidden="1" customWidth="1"/>
+    <col min="62" max="62" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="30.6640625" hidden="1" customWidth="1"/>
+    <col min="64" max="64" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="65" max="65" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="0" hidden="1" customWidth="1"/>
-    <col min="67" max="67" width="15.7109375" hidden="1" customWidth="1"/>
-    <col min="68" max="68" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="15.6640625" hidden="1" customWidth="1"/>
+    <col min="68" max="68" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" t="s">
         <v>103</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>104</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>105</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>106</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>108</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>110</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
         <v>111</v>
       </c>
-      <c r="K1" t="s">
+      <c r="M1" t="s">
         <v>112</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>113</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>114</v>
       </c>
-      <c r="N1" t="s">
+      <c r="P1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" t="s">
+      <c r="Q1" t="s">
         <v>116</v>
       </c>
-      <c r="P1" t="s">
+      <c r="R1" t="s">
         <v>117</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="S1" t="s">
         <v>118</v>
       </c>
-      <c r="R1" t="s">
+      <c r="T1" t="s">
         <v>119</v>
       </c>
-      <c r="S1" t="s">
+      <c r="U1" t="s">
         <v>120</v>
       </c>
-      <c r="T1" t="s">
+      <c r="V1" t="s">
         <v>121</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>122</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>123</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Y1" t="s">
         <v>124</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>125</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AA1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AB1" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AC1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AE1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AF1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AG1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AH1" t="s">
         <v>133</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>135</v>
       </c>
       <c r="AI1" t="s">
         <v>2</v>
       </c>
       <c r="AJ1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL1" t="s">
         <v>136</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AM1" t="s">
         <v>137</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AN1" t="s">
         <v>138</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>140</v>
       </c>
       <c r="AO1" t="s">
         <v>3</v>
@@ -1508,13 +1502,13 @@
         <v>11</v>
       </c>
       <c r="AX1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AZ1" t="s">
         <v>141</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>142</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>143</v>
       </c>
       <c r="BA1" t="s">
         <v>12</v>
@@ -1556,15 +1550,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B2" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
         <v>59</v>
@@ -1709,15 +1703,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
         <v>60</v>
@@ -1862,15 +1856,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B4" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
         <v>61</v>
@@ -1994,15 +1988,15 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
         <v>62</v>
@@ -2110,15 +2104,15 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>56</v>
@@ -2239,17 +2233,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E3A8CD2-D7D8-47D1-8355-3B292012E9B8}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.109375" customWidth="1"/>
     <col min="3" max="3" width="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2257,7 +2253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
@@ -2265,7 +2261,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -2273,7 +2269,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
@@ -2281,7 +2277,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -2289,7 +2285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -2297,37 +2293,31 @@
         <v>50</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>30</v>
       </c>
       <c r="B7" s="7"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="6"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
@@ -2335,7 +2325,7 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -2343,41 +2333,41 @@
         <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C13" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
@@ -2385,7 +2375,7 @@
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -2397,7 +2387,7 @@
       </c>
       <c r="D16" s="8"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>40</v>
       </c>
@@ -2409,7 +2399,7 @@
       </c>
       <c r="D17" s="6"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>41</v>
       </c>
@@ -2417,7 +2407,7 @@
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>42</v>
       </c>
@@ -2425,7 +2415,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>43</v>
       </c>
@@ -2433,7 +2423,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -2441,7 +2431,7 @@
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
@@ -2449,7 +2439,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2457,7 +2447,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>90</v>
       </c>
@@ -2465,7 +2455,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>91</v>
       </c>
@@ -2473,7 +2463,7 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>92</v>
       </c>
@@ -2481,7 +2471,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>93</v>
       </c>

--- a/templates/dataplant/3ASY03_MetabolomicsMassSpec.xlsx
+++ b/templates/dataplant/3ASY03_MetabolomicsMassSpec.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stella Eggels\Documents\GitHub\Swate-templates\templates\dataplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98315268-AC9C-4FCA-BCEF-F0956459039A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75F81079-E32E-4064-AF4C-EE09A9BA6E5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3ASY03_MetabolomicsMassSpec" sheetId="1" r:id="rId1"/>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="144">
   <si>
     <t>Source Name</t>
   </si>
@@ -429,9 +429,6 @@
     <t>Mass Spectrometry</t>
   </si>
   <si>
-    <t>http://purl.obolibrary.org/obo/NCIT_C17156</t>
-  </si>
-  <si>
     <t>Protocol Type</t>
   </si>
   <si>
@@ -553,6 +550,15 @@
   </si>
   <si>
     <t xml:space="preserve">Term Accession Number (MS:1000031) </t>
+  </si>
+  <si>
+    <t>assay</t>
+  </si>
+  <si>
+    <t>OBI:0000070</t>
+  </si>
+  <si>
+    <t>NCIT:C17156</t>
   </si>
 </sst>
 </file>
@@ -1358,121 +1364,121 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>102</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>103</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>116</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>117</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>118</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>119</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>120</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>121</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>122</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>132</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>133</v>
       </c>
       <c r="AI1" t="s">
         <v>2</v>
       </c>
       <c r="AJ1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AK1" t="s">
         <v>134</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>135</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>136</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>137</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>138</v>
       </c>
       <c r="AO1" t="s">
         <v>3</v>
@@ -1502,13 +1508,13 @@
         <v>11</v>
       </c>
       <c r="AX1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AY1" t="s">
         <v>139</v>
       </c>
-      <c r="AY1" t="s">
+      <c r="AZ1" t="s">
         <v>140</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>141</v>
       </c>
       <c r="BA1" t="s">
         <v>12</v>
@@ -2234,7 +2240,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2333,7 +2339,7 @@
         <v>51</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>99</v>
@@ -2347,10 +2353,10 @@
         <v>95</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>100</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2360,12 +2366,8 @@
       <c r="B14" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>96</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
